--- a/Employee_Reports29/Roderick Cailao Amar Q0480.xlsx
+++ b/Employee_Reports29/Roderick Cailao Amar Q0480.xlsx
@@ -18,13 +18,17 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b val="1"/>
+      <sz val="14"/>
     </font>
     <font>
       <b val="1"/>
@@ -74,7 +78,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -451,7 +455,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K30"/>
+  <dimension ref="A1:K33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -462,7 +466,7 @@
     <col width="4" customWidth="1" min="1" max="1"/>
     <col width="73" customWidth="1" min="2" max="2"/>
     <col width="19" customWidth="1" min="3" max="3"/>
-    <col width="16" customWidth="1" min="4" max="4"/>
+    <col width="18" customWidth="1" min="4" max="4"/>
     <col width="18" customWidth="1" min="5" max="5"/>
     <col width="15" customWidth="1" min="6" max="6"/>
     <col width="13" customWidth="1" min="7" max="7"/>
@@ -571,11 +575,11 @@
         </is>
       </c>
       <c r="H3" s="3" t="n">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="I3" s="3" t="inlineStr">
         <is>
-          <t>16-Sep-2025</t>
+          <t>17-Sep-2025</t>
         </is>
       </c>
       <c r="J3" s="3" t="inlineStr">
@@ -620,11 +624,11 @@
         </is>
       </c>
       <c r="H4" s="3" t="n">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="I4" s="3" t="inlineStr">
         <is>
-          <t>16-Sep-2025</t>
+          <t>17-Sep-2025</t>
         </is>
       </c>
       <c r="J4" s="3" t="inlineStr">
@@ -669,11 +673,11 @@
         </is>
       </c>
       <c r="H5" s="3" t="n">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="I5" s="3" t="inlineStr">
         <is>
-          <t>16-Sep-2025</t>
+          <t>17-Sep-2025</t>
         </is>
       </c>
       <c r="J5" s="3" t="inlineStr">
@@ -718,11 +722,11 @@
         </is>
       </c>
       <c r="H6" s="3" t="n">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="I6" s="3" t="inlineStr">
         <is>
-          <t>16-Sep-2025</t>
+          <t>17-Sep-2025</t>
         </is>
       </c>
       <c r="J6" s="3" t="inlineStr">
@@ -767,11 +771,11 @@
         </is>
       </c>
       <c r="H7" s="3" t="n">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="I7" s="3" t="inlineStr">
         <is>
-          <t>16-Sep-2025</t>
+          <t>17-Sep-2025</t>
         </is>
       </c>
       <c r="J7" s="3" t="inlineStr">
@@ -816,11 +820,11 @@
         </is>
       </c>
       <c r="H8" s="3" t="n">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="I8" s="3" t="inlineStr">
         <is>
-          <t>16-Sep-2025</t>
+          <t>17-Sep-2025</t>
         </is>
       </c>
       <c r="J8" s="3" t="inlineStr">
@@ -865,11 +869,11 @@
         </is>
       </c>
       <c r="H9" s="3" t="n">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="I9" s="3" t="inlineStr">
         <is>
-          <t>16-Sep-2025</t>
+          <t>17-Sep-2025</t>
         </is>
       </c>
       <c r="J9" s="3" t="inlineStr">
@@ -914,11 +918,11 @@
         </is>
       </c>
       <c r="H10" s="3" t="n">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="I10" s="3" t="inlineStr">
         <is>
-          <t>16-Sep-2025</t>
+          <t>17-Sep-2025</t>
         </is>
       </c>
       <c r="J10" s="3" t="inlineStr">
@@ -963,11 +967,11 @@
         </is>
       </c>
       <c r="H11" s="3" t="n">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="I11" s="3" t="inlineStr">
         <is>
-          <t>16-Sep-2025</t>
+          <t>17-Sep-2025</t>
         </is>
       </c>
       <c r="J11" s="3" t="inlineStr">
@@ -1003,20 +1007,20 @@
       </c>
       <c r="F12" s="3" t="inlineStr">
         <is>
-          <t>20-Jan-2025</t>
+          <t>11-Sep-2025</t>
         </is>
       </c>
       <c r="G12" s="3" t="inlineStr">
         <is>
-          <t>20-Jan-2027</t>
+          <t>11-Sep-2027</t>
         </is>
       </c>
       <c r="H12" s="3" t="n">
-        <v>490</v>
+        <v>723</v>
       </c>
       <c r="I12" s="3" t="inlineStr">
         <is>
-          <t>16-Sep-2025</t>
+          <t>17-Sep-2025</t>
         </is>
       </c>
       <c r="J12" s="3" t="inlineStr">
@@ -1061,11 +1065,11 @@
         </is>
       </c>
       <c r="H13" s="3" t="n">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="I13" s="3" t="inlineStr">
         <is>
-          <t>16-Sep-2025</t>
+          <t>17-Sep-2025</t>
         </is>
       </c>
       <c r="J13" s="3" t="inlineStr">
@@ -1110,11 +1114,11 @@
         </is>
       </c>
       <c r="H14" s="3" t="n">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="I14" s="3" t="inlineStr">
         <is>
-          <t>16-Sep-2025</t>
+          <t>17-Sep-2025</t>
         </is>
       </c>
       <c r="J14" s="3" t="inlineStr">
@@ -1159,11 +1163,11 @@
         </is>
       </c>
       <c r="H15" s="3" t="n">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="I15" s="3" t="inlineStr">
         <is>
-          <t>16-Sep-2025</t>
+          <t>17-Sep-2025</t>
         </is>
       </c>
       <c r="J15" s="3" t="inlineStr">
@@ -1208,11 +1212,11 @@
         </is>
       </c>
       <c r="H16" s="3" t="n">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="I16" s="3" t="inlineStr">
         <is>
-          <t>16-Sep-2025</t>
+          <t>17-Sep-2025</t>
         </is>
       </c>
       <c r="J16" s="3" t="inlineStr">
@@ -1257,11 +1261,11 @@
         </is>
       </c>
       <c r="H17" s="3" t="n">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="I17" s="3" t="inlineStr">
         <is>
-          <t>16-Sep-2025</t>
+          <t>17-Sep-2025</t>
         </is>
       </c>
       <c r="J17" s="3" t="inlineStr">
@@ -1306,11 +1310,11 @@
         </is>
       </c>
       <c r="H18" s="3" t="n">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="I18" s="3" t="inlineStr">
         <is>
-          <t>16-Sep-2025</t>
+          <t>17-Sep-2025</t>
         </is>
       </c>
       <c r="J18" s="3" t="inlineStr">
@@ -1334,8 +1338,10 @@
           <t>ELECTRICAL SAFETY</t>
         </is>
       </c>
-      <c r="D19" s="4" t="n">
-        <v/>
+      <c r="D19" s="4" t="inlineStr">
+        <is>
+          <t>LSME-OHS-SOP-021</t>
+        </is>
       </c>
       <c r="E19" s="4" t="inlineStr">
         <is>
@@ -1353,11 +1359,11 @@
         </is>
       </c>
       <c r="H19" s="4" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I19" s="4" t="inlineStr">
         <is>
-          <t>16-Sep-2025</t>
+          <t>17-Sep-2025</t>
         </is>
       </c>
       <c r="J19" s="4" t="inlineStr">
@@ -1382,8 +1388,10 @@
           <t>CARGO</t>
         </is>
       </c>
-      <c r="D20" s="4" t="n">
-        <v/>
+      <c r="D20" s="4" t="inlineStr">
+        <is>
+          <t>LSME-CRG-SOP-031</t>
+        </is>
       </c>
       <c r="E20" s="4" t="inlineStr">
         <is>
@@ -1401,11 +1409,11 @@
         </is>
       </c>
       <c r="H20" s="4" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I20" s="4" t="inlineStr">
         <is>
-          <t>16-Sep-2025</t>
+          <t>17-Sep-2025</t>
         </is>
       </c>
       <c r="J20" s="4" t="inlineStr">
@@ -1429,8 +1437,10 @@
           <t>CARGO</t>
         </is>
       </c>
-      <c r="D21" s="3" t="n">
-        <v/>
+      <c r="D21" s="3" t="inlineStr">
+        <is>
+          <t>LSME-CRG-SOP-028</t>
+        </is>
       </c>
       <c r="E21" s="3" t="inlineStr">
         <is>
@@ -1448,11 +1458,11 @@
         </is>
       </c>
       <c r="H21" s="3" t="n">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="I21" s="3" t="inlineStr">
         <is>
-          <t>16-Sep-2025</t>
+          <t>17-Sep-2025</t>
         </is>
       </c>
       <c r="J21" s="3" t="inlineStr">
@@ -1485,11 +1495,11 @@
         </is>
       </c>
       <c r="H22" s="4" t="n">
-        <v>-42</v>
+        <v>-43</v>
       </c>
       <c r="I22" s="4" t="inlineStr">
         <is>
-          <t>16-Sep-2025</t>
+          <t>17-Sep-2025</t>
         </is>
       </c>
       <c r="J22" s="4" t="inlineStr">
@@ -1513,8 +1523,10 @@
           <t>IMS</t>
         </is>
       </c>
-      <c r="D23" s="3" t="n">
-        <v/>
+      <c r="D23" s="3" t="inlineStr">
+        <is>
+          <t>LSME-IMS-SOP-021</t>
+        </is>
       </c>
       <c r="E23" s="3" t="inlineStr">
         <is>
@@ -1532,11 +1544,11 @@
         </is>
       </c>
       <c r="H23" s="3" t="n">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="I23" s="3" t="inlineStr">
         <is>
-          <t>16-Sep-2025</t>
+          <t>17-Sep-2025</t>
         </is>
       </c>
       <c r="J23" s="3" t="inlineStr">
@@ -1560,8 +1572,10 @@
           <t>IMS</t>
         </is>
       </c>
-      <c r="D24" s="3" t="n">
-        <v/>
+      <c r="D24" s="3" t="inlineStr">
+        <is>
+          <t>LSME-IMS-SOP-018</t>
+        </is>
       </c>
       <c r="E24" s="3" t="inlineStr">
         <is>
@@ -1579,11 +1593,11 @@
         </is>
       </c>
       <c r="H24" s="3" t="n">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="I24" s="3" t="inlineStr">
         <is>
-          <t>16-Sep-2025</t>
+          <t>17-Sep-2025</t>
         </is>
       </c>
       <c r="J24" s="3" t="inlineStr">
@@ -1616,11 +1630,11 @@
         </is>
       </c>
       <c r="H25" s="3" t="n">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="I25" s="3" t="inlineStr">
         <is>
-          <t>16-Sep-2025</t>
+          <t>17-Sep-2025</t>
         </is>
       </c>
       <c r="J25" s="3" t="inlineStr">
@@ -1644,8 +1658,10 @@
           <t>CARGO</t>
         </is>
       </c>
-      <c r="D26" s="3" t="n">
-        <v/>
+      <c r="D26" s="3" t="inlineStr">
+        <is>
+          <t>LSME-CRG-SOP-003</t>
+        </is>
       </c>
       <c r="E26" s="3" t="inlineStr">
         <is>
@@ -1663,11 +1679,11 @@
         </is>
       </c>
       <c r="H26" s="3" t="n">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="I26" s="3" t="inlineStr">
         <is>
-          <t>16-Sep-2025</t>
+          <t>17-Sep-2025</t>
         </is>
       </c>
       <c r="J26" s="3" t="inlineStr">
@@ -1691,8 +1707,10 @@
           <t>IMS</t>
         </is>
       </c>
-      <c r="D27" s="3" t="n">
-        <v/>
+      <c r="D27" s="3" t="inlineStr">
+        <is>
+          <t>LSME-IMS-SOP-023</t>
+        </is>
       </c>
       <c r="E27" s="3" t="inlineStr">
         <is>
@@ -1710,11 +1728,11 @@
         </is>
       </c>
       <c r="H27" s="3" t="n">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="I27" s="3" t="inlineStr">
         <is>
-          <t>16-Sep-2025</t>
+          <t>17-Sep-2025</t>
         </is>
       </c>
       <c r="J27" s="3" t="inlineStr">
@@ -1738,8 +1756,10 @@
           <t>CARGO</t>
         </is>
       </c>
-      <c r="D28" s="3" t="n">
-        <v/>
+      <c r="D28" s="3" t="inlineStr">
+        <is>
+          <t>LSME-CRG-SOP-009</t>
+        </is>
       </c>
       <c r="E28" s="3" t="inlineStr">
         <is>
@@ -1757,11 +1777,11 @@
         </is>
       </c>
       <c r="H28" s="3" t="n">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="I28" s="3" t="inlineStr">
         <is>
-          <t>16-Sep-2025</t>
+          <t>17-Sep-2025</t>
         </is>
       </c>
       <c r="J28" s="3" t="inlineStr">
@@ -1785,8 +1805,10 @@
           <t>CARGO</t>
         </is>
       </c>
-      <c r="D29" s="3" t="n">
-        <v/>
+      <c r="D29" s="3" t="inlineStr">
+        <is>
+          <t>LSME-CRG-SOP-010</t>
+        </is>
       </c>
       <c r="E29" s="3" t="inlineStr">
         <is>
@@ -1804,11 +1826,11 @@
         </is>
       </c>
       <c r="H29" s="3" t="n">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="I29" s="3" t="inlineStr">
         <is>
-          <t>16-Sep-2025</t>
+          <t>17-Sep-2025</t>
         </is>
       </c>
       <c r="J29" s="3" t="inlineStr">
@@ -1827,9 +1849,21 @@
           <t>Replacement of Stacker Crane Wire Rope (SOPs)</t>
         </is>
       </c>
-      <c r="C30" s="3" t="inlineStr"/>
-      <c r="D30" s="3" t="inlineStr"/>
-      <c r="E30" s="3" t="inlineStr"/>
+      <c r="C30" s="3" t="inlineStr">
+        <is>
+          <t>CARGO</t>
+        </is>
+      </c>
+      <c r="D30" s="3" t="inlineStr">
+        <is>
+          <t>LSME-CRG-SOP-001</t>
+        </is>
+      </c>
+      <c r="E30" s="3" t="inlineStr">
+        <is>
+          <t>SOP</t>
+        </is>
+      </c>
       <c r="F30" s="3" t="inlineStr">
         <is>
           <t>01-Sep-2025</t>
@@ -1841,11 +1875,11 @@
         </is>
       </c>
       <c r="H30" s="3" t="n">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="I30" s="3" t="inlineStr">
         <is>
-          <t>16-Sep-2025</t>
+          <t>17-Sep-2025</t>
         </is>
       </c>
       <c r="J30" s="3" t="inlineStr">
@@ -1854,6 +1888,141 @@
         </is>
       </c>
       <c r="K30" s="3" t="inlineStr"/>
+    </row>
+    <row r="31">
+      <c r="A31" s="3" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" s="3" t="inlineStr">
+        <is>
+          <t>Replacing Bearings Of ULD Hoist Counterweight Pulley (SOPs)</t>
+        </is>
+      </c>
+      <c r="C31" s="3" t="inlineStr">
+        <is>
+          <t>CARGO</t>
+        </is>
+      </c>
+      <c r="D31" s="3" t="inlineStr">
+        <is>
+          <t>LSME-CRG-SOP-011</t>
+        </is>
+      </c>
+      <c r="E31" s="3" t="inlineStr">
+        <is>
+          <t>SOP</t>
+        </is>
+      </c>
+      <c r="F31" s="3" t="inlineStr">
+        <is>
+          <t>11-Sep-2025</t>
+        </is>
+      </c>
+      <c r="G31" s="3" t="inlineStr">
+        <is>
+          <t>11-Sep-2026</t>
+        </is>
+      </c>
+      <c r="H31" s="3" t="n">
+        <v>358</v>
+      </c>
+      <c r="I31" s="3" t="inlineStr">
+        <is>
+          <t>17-Sep-2025</t>
+        </is>
+      </c>
+      <c r="J31" s="3" t="inlineStr">
+        <is>
+          <t>VALID</t>
+        </is>
+      </c>
+      <c r="K31" s="3" t="inlineStr"/>
+    </row>
+    <row r="32">
+      <c r="A32" s="3" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" s="3" t="inlineStr">
+        <is>
+          <t>Overload and Load Testing Procedure In ULD Hoist (SOPs)</t>
+        </is>
+      </c>
+      <c r="C32" s="3" t="inlineStr">
+        <is>
+          <t>CARGO</t>
+        </is>
+      </c>
+      <c r="D32" s="3" t="inlineStr">
+        <is>
+          <t>LSME-CRG-SOP-018</t>
+        </is>
+      </c>
+      <c r="E32" s="3" t="inlineStr">
+        <is>
+          <t>SOP</t>
+        </is>
+      </c>
+      <c r="F32" s="3" t="inlineStr">
+        <is>
+          <t>11-Sep-2025</t>
+        </is>
+      </c>
+      <c r="G32" s="3" t="inlineStr">
+        <is>
+          <t>11-Sep-2026</t>
+        </is>
+      </c>
+      <c r="H32" s="3" t="n">
+        <v>358</v>
+      </c>
+      <c r="I32" s="3" t="inlineStr">
+        <is>
+          <t>17-Sep-2025</t>
+        </is>
+      </c>
+      <c r="J32" s="3" t="inlineStr">
+        <is>
+          <t>VALID</t>
+        </is>
+      </c>
+      <c r="K32" s="3" t="inlineStr"/>
+    </row>
+    <row r="33">
+      <c r="A33" s="3" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" s="3" t="inlineStr">
+        <is>
+          <t>ULD Hoist Drve Motor Replacement (SOPs)</t>
+        </is>
+      </c>
+      <c r="C33" s="3" t="inlineStr"/>
+      <c r="D33" s="3" t="inlineStr"/>
+      <c r="E33" s="3" t="inlineStr"/>
+      <c r="F33" s="3" t="inlineStr">
+        <is>
+          <t>11-Sep-2025</t>
+        </is>
+      </c>
+      <c r="G33" s="3" t="inlineStr">
+        <is>
+          <t>11-Sep-2026</t>
+        </is>
+      </c>
+      <c r="H33" s="3" t="n">
+        <v>358</v>
+      </c>
+      <c r="I33" s="3" t="inlineStr">
+        <is>
+          <t>17-Sep-2025</t>
+        </is>
+      </c>
+      <c r="J33" s="3" t="inlineStr">
+        <is>
+          <t>VALID</t>
+        </is>
+      </c>
+      <c r="K33" s="3" t="inlineStr"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1937,22 +2106,22 @@
       </c>
       <c r="C3" s="3" t="inlineStr">
         <is>
-          <t>01-Nov-2023</t>
+          <t>10-Sep-2025</t>
         </is>
       </c>
       <c r="D3" s="3" t="inlineStr">
         <is>
-          <t>91.90%</t>
+          <t>100.00%</t>
         </is>
       </c>
       <c r="E3" s="3" t="inlineStr">
         <is>
-          <t>VALID</t>
+          <t>perfect score</t>
         </is>
       </c>
       <c r="F3" s="3" t="inlineStr">
         <is>
-          <t>Approved Score. date is valid</t>
+          <t>Congratulations on achieving a perfect score!!!! date is valid</t>
         </is>
       </c>
       <c r="G3" s="3" t="n"/>
@@ -2184,31 +2353,35 @@
       <c r="G11" s="4" t="n"/>
     </row>
     <row r="12">
-      <c r="A12" s="4" t="n">
+      <c r="A12" s="3" t="n">
         <v>10</v>
       </c>
-      <c r="B12" s="4" t="inlineStr">
+      <c r="B12" s="3" t="inlineStr">
         <is>
           <t>Uld Hoist</t>
         </is>
       </c>
-      <c r="C12" s="4" t="inlineStr"/>
-      <c r="D12" s="4" t="inlineStr">
-        <is>
-          <t>97.60%</t>
-        </is>
-      </c>
-      <c r="E12" s="4" t="inlineStr">
-        <is>
-          <t>NOT VALID</t>
-        </is>
-      </c>
-      <c r="F12" s="4" t="inlineStr">
-        <is>
-          <t>Approved Score. Kindly redo your exam the exam is not recorded properly</t>
-        </is>
-      </c>
-      <c r="G12" s="4" t="n"/>
+      <c r="C12" s="3" t="inlineStr">
+        <is>
+          <t>15-Sep-2025</t>
+        </is>
+      </c>
+      <c r="D12" s="3" t="inlineStr">
+        <is>
+          <t>87.50%</t>
+        </is>
+      </c>
+      <c r="E12" s="3" t="inlineStr">
+        <is>
+          <t>VALID</t>
+        </is>
+      </c>
+      <c r="F12" s="3" t="inlineStr">
+        <is>
+          <t>Approved Score. date is valid</t>
+        </is>
+      </c>
+      <c r="G12" s="3" t="n"/>
     </row>
     <row r="13">
       <c r="A13" s="4" t="n">
@@ -2394,7 +2567,7 @@
       </c>
       <c r="D19" s="3" t="inlineStr">
         <is>
-          <t>84.88%</t>
+          <t>84.75%</t>
         </is>
       </c>
       <c r="E19" s="3" t="inlineStr"/>
